--- a/table_model____spi-6__lasso_($\beta_=_$1.5).xlsx
+++ b/table_model____spi-6__lasso_($\beta_=_$1.5).xlsx
@@ -690,7 +690,7 @@
         <v>1.12703818</v>
       </c>
       <c r="B2">
-        <v>1.550245211161321</v>
+        <v>1.550244458564139</v>
       </c>
       <c r="C2">
         <v>1.550245208979306</v>
@@ -845,7 +845,7 @@
         <v>1.14030363</v>
       </c>
       <c r="B3">
-        <v>1.139452917222548</v>
+        <v>1.139452382589697</v>
       </c>
       <c r="C3">
         <v>1.139452915672481</v>
@@ -1000,7 +1000,7 @@
         <v>0.681304577</v>
       </c>
       <c r="B4">
-        <v>0.365239977684727</v>
+        <v>0.365239815852925</v>
       </c>
       <c r="C4">
         <v>0.3652399772155261</v>
@@ -1155,7 +1155,7 @@
         <v>0.408251684</v>
       </c>
       <c r="B5">
-        <v>0.5894424560878903</v>
+        <v>0.589442159908559</v>
       </c>
       <c r="C5">
         <v>0.5894424552291739</v>
@@ -1310,7 +1310,7 @@
         <v>-0.107509787</v>
       </c>
       <c r="B6">
-        <v>-0.5191974522590013</v>
+        <v>-0.5191972629257301</v>
       </c>
       <c r="C6">
         <v>-0.519197451710065</v>
@@ -1465,7 +1465,7 @@
         <v>-0.178373341</v>
       </c>
       <c r="B7">
-        <v>-0.5671444467214681</v>
+        <v>-0.567144203883358</v>
       </c>
       <c r="C7">
         <v>-0.5671444460174048</v>
@@ -1620,7 +1620,7 @@
         <v>0.686567453</v>
       </c>
       <c r="B8">
-        <v>0.4130821268784867</v>
+        <v>0.4130818844634252</v>
       </c>
       <c r="C8">
         <v>0.4130821261756498</v>
@@ -1775,7 +1775,7 @@
         <v>0.231220732</v>
       </c>
       <c r="B9">
-        <v>0.2601497766647868</v>
+        <v>0.2601496081420366</v>
       </c>
       <c r="C9">
         <v>0.2601497761761869</v>
@@ -1930,7 +1930,7 @@
         <v>-0.017236558</v>
       </c>
       <c r="B10">
-        <v>0.1171814083821367</v>
+        <v>0.1171813174678033</v>
       </c>
       <c r="C10">
         <v>0.1171814081185477</v>
@@ -2085,7 +2085,7 @@
         <v>-0.7497877120000001</v>
       </c>
       <c r="B11">
-        <v>-0.2178063870946239</v>
+        <v>-0.2178063358256357</v>
       </c>
       <c r="C11">
         <v>-0.217806386945979</v>
@@ -2240,7 +2240,7 @@
         <v>-0.245343768</v>
       </c>
       <c r="B12">
-        <v>0.2857123865683937</v>
+        <v>0.2857121980994725</v>
       </c>
       <c r="C12">
         <v>0.2857123860219635</v>
@@ -2395,7 +2395,7 @@
         <v>-0.33157628</v>
       </c>
       <c r="B13">
-        <v>0.0287382838173318</v>
+        <v>0.02873820469312398</v>
       </c>
       <c r="C13">
         <v>0.02873828358792611</v>
@@ -2550,7 +2550,7 @@
         <v>-1.121163328</v>
       </c>
       <c r="B14">
-        <v>-1.027460662918008</v>
+        <v>-1.027460238075511</v>
       </c>
       <c r="C14">
         <v>-1.027460661686257</v>
@@ -2705,7 +2705,7 @@
         <v>-0.072537281</v>
       </c>
       <c r="B15">
-        <v>0.1032578074851048</v>
+        <v>0.1032577124396403</v>
       </c>
       <c r="C15">
         <v>0.1032578072095384</v>
@@ -2860,7 +2860,7 @@
         <v>0.309041204</v>
       </c>
       <c r="B16">
-        <v>0.5466131370162634</v>
+        <v>0.5466128258128071</v>
       </c>
       <c r="C16">
         <v>0.5466131361139874</v>
@@ -3015,7 +3015,7 @@
         <v>0.418836013</v>
       </c>
       <c r="B17">
-        <v>0.4547320821831253</v>
+        <v>0.4547318479213202</v>
       </c>
       <c r="C17">
         <v>0.4547320815039272</v>
@@ -3170,7 +3170,7 @@
         <v>-0.260493354</v>
       </c>
       <c r="B18">
-        <v>-0.4286718652087757</v>
+        <v>-0.4286716682640669</v>
       </c>
       <c r="C18">
         <v>-0.4286718646377716</v>
@@ -3325,7 +3325,7 @@
         <v>-0.054560058</v>
       </c>
       <c r="B19">
-        <v>-0.005548321683984683</v>
+        <v>-0.005548324891836223</v>
       </c>
       <c r="C19">
         <v>-0.005548321693285299</v>
@@ -3480,7 +3480,7 @@
         <v>-0.134306691</v>
       </c>
       <c r="B20">
-        <v>-0.1297997949395818</v>
+        <v>-0.129799752227643</v>
       </c>
       <c r="C20">
         <v>-0.1297997948157467</v>
@@ -3635,7 +3635,7 @@
         <v>-1.373687226</v>
       </c>
       <c r="B21">
-        <v>-1.321066435738253</v>
+        <v>-1.32106585385498</v>
       </c>
       <c r="C21">
         <v>-1.321066434051192</v>
@@ -3790,7 +3790,7 @@
         <v>-2.021776558</v>
       </c>
       <c r="B22">
-        <v>-1.780033700069857</v>
+        <v>-1.780032894572039</v>
       </c>
       <c r="C22">
         <v>-1.780033697734467</v>
@@ -3945,7 +3945,7 @@
         <v>-2.768247153</v>
       </c>
       <c r="B23">
-        <v>-2.138144871753768</v>
+        <v>-2.138143912265442</v>
       </c>
       <c r="C23">
         <v>-2.138144868971913</v>
@@ -4100,7 +4100,7 @@
         <v>-1.617556037</v>
       </c>
       <c r="B24">
-        <v>-1.193804550741566</v>
+        <v>-1.193804023017938</v>
       </c>
       <c r="C24">
         <v>-1.193804549211531</v>
@@ -4255,7 +4255,7 @@
         <v>-1.780869488</v>
       </c>
       <c r="B25">
-        <v>-1.819204774221017</v>
+        <v>-1.819203958997189</v>
       </c>
       <c r="C25">
         <v>-1.819204771857428</v>
@@ -4410,7 +4410,7 @@
         <v>-1.300452484</v>
       </c>
       <c r="B26">
-        <v>-1.368671047368923</v>
+        <v>-1.368670428190836</v>
       </c>
       <c r="C26">
         <v>-1.368671045573733</v>
@@ -4565,7 +4565,7 @@
         <v>-1.77117984</v>
       </c>
       <c r="B27">
-        <v>-1.631562846118584</v>
+        <v>-1.631562100960092</v>
       </c>
       <c r="C27">
         <v>-1.631562843958137</v>
@@ -4720,7 +4720,7 @@
         <v>-1.377645584</v>
       </c>
       <c r="B28">
-        <v>-1.249826958762563</v>
+        <v>-1.249826413520923</v>
       </c>
       <c r="C28">
         <v>-1.249826957181738</v>
@@ -4875,7 +4875,7 @@
         <v>-0.193821668</v>
       </c>
       <c r="B29">
-        <v>0.01978793988416999</v>
+        <v>0.01978787803626664</v>
       </c>
       <c r="C29">
         <v>0.01978793970485367</v>
@@ -5030,7 +5030,7 @@
         <v>-0.135364639</v>
       </c>
       <c r="B30">
-        <v>0.537286839663711</v>
+        <v>0.5372865178171358</v>
       </c>
       <c r="C30">
         <v>0.5372868387305775</v>
@@ -5185,7 +5185,7 @@
         <v>-0.360498282</v>
       </c>
       <c r="B31">
-        <v>0.2438642252352197</v>
+        <v>0.2438640414031524</v>
       </c>
       <c r="C31">
         <v>0.2438642247022333</v>
@@ -5340,7 +5340,7 @@
         <v>-0.859042275</v>
       </c>
       <c r="B32">
-        <v>-0.1447951143683846</v>
+        <v>-0.1447951155465668</v>
       </c>
       <c r="C32">
         <v>-0.1447951143718004</v>
@@ -5495,7 +5495,7 @@
         <v>-0.149240493</v>
       </c>
       <c r="B33">
-        <v>0.3252252982710154</v>
+        <v>0.3252250893341967</v>
       </c>
       <c r="C33">
         <v>0.3252252976652424</v>
@@ -5650,7 +5650,7 @@
         <v>-0.236175245</v>
       </c>
       <c r="B34">
-        <v>0.269114002876569</v>
+        <v>0.2691138293105974</v>
       </c>
       <c r="C34">
         <v>0.2691140023733471</v>
@@ -5805,7 +5805,7 @@
         <v>-1.022433007</v>
       </c>
       <c r="B35">
-        <v>-0.481746217488197</v>
+        <v>-0.4817460272457601</v>
       </c>
       <c r="C35">
         <v>-0.4817462169366247</v>
@@ -5960,7 +5960,7 @@
         <v>-1.53558335</v>
       </c>
       <c r="B36">
-        <v>-1.22080791638206</v>
+        <v>-1.220807402084575</v>
       </c>
       <c r="C36">
         <v>-1.220807914890951</v>
@@ -6115,7 +6115,7 @@
         <v>-1.348318065</v>
       </c>
       <c r="B37">
-        <v>-1.070197442118763</v>
+        <v>-1.070196990081578</v>
       </c>
       <c r="C37">
         <v>-1.070197440808166</v>
@@ -6270,7 +6270,7 @@
         <v>-0.915745502</v>
       </c>
       <c r="B38">
-        <v>-0.8043363255105421</v>
+        <v>-0.8043359916174042</v>
       </c>
       <c r="C38">
         <v>-0.8043363245424818</v>
@@ -6425,7 +6425,7 @@
         <v>-0.422632353</v>
       </c>
       <c r="B39">
-        <v>-0.4594991033787761</v>
+        <v>-0.459498914546702</v>
       </c>
       <c r="C39">
         <v>-0.459499102831293</v>
@@ -6580,7 +6580,7 @@
         <v>-0.350518731</v>
       </c>
       <c r="B40">
-        <v>-0.3503906729031139</v>
+        <v>-0.3503905361386502</v>
       </c>
       <c r="C40">
         <v>-0.3503906725065911</v>
@@ -6735,7 +6735,7 @@
         <v>-0.128190664</v>
       </c>
       <c r="B41">
-        <v>-0.06695349324255172</v>
+        <v>-0.06695349681366682</v>
       </c>
       <c r="C41">
         <v>-0.06695349325290549</v>
@@ -6890,7 +6890,7 @@
         <v>0.063051911</v>
       </c>
       <c r="B42">
-        <v>-0.1187253345300915</v>
+        <v>-0.1187253131989319</v>
       </c>
       <c r="C42">
         <v>-0.1187253344682458</v>
@@ -7045,7 +7045,7 @@
         <v>0.693438741</v>
       </c>
       <c r="B43">
-        <v>0.573838657337851</v>
+        <v>0.5738383634883758</v>
       </c>
       <c r="C43">
         <v>0.5738386564858896</v>
@@ -7200,7 +7200,7 @@
         <v>1.457632203</v>
       </c>
       <c r="B44">
-        <v>1.717399740045057</v>
+        <v>1.717398906137122</v>
       </c>
       <c r="C44">
         <v>1.717399737627298</v>
@@ -7355,7 +7355,7 @@
         <v>0.925767399</v>
       </c>
       <c r="B45">
-        <v>1.578010071517581</v>
+        <v>1.578009285921576</v>
       </c>
       <c r="C45">
         <v>1.578010069239893</v>
@@ -7510,7 +7510,7 @@
         <v>1.438674037</v>
       </c>
       <c r="B46">
-        <v>1.906077558609832</v>
+        <v>1.906076614870031</v>
       </c>
       <c r="C46">
         <v>1.906077555873636</v>
@@ -7665,7 +7665,7 @@
         <v>1.050844567</v>
       </c>
       <c r="B47">
-        <v>1.755335430001848</v>
+        <v>1.755334570051249</v>
       </c>
       <c r="C47">
         <v>1.755335427508583</v>
@@ -7820,7 +7820,7 @@
         <v>1.019025634</v>
       </c>
       <c r="B48">
-        <v>1.638746937046409</v>
+        <v>1.638746154378487</v>
       </c>
       <c r="C48">
         <v>1.638746934777211</v>
@@ -7975,7 +7975,7 @@
         <v>0.702825517</v>
       </c>
       <c r="B49">
-        <v>1.386582205544332</v>
+        <v>1.386581536626753</v>
       </c>
       <c r="C49">
         <v>1.386582203604931</v>
@@ -8130,7 +8130,7 @@
         <v>-0.07035459600000001</v>
       </c>
       <c r="B50">
-        <v>0.1282283256970651</v>
+        <v>0.1282282451573986</v>
       </c>
       <c r="C50">
         <v>0.1282283254635554</v>
@@ -8285,7 +8285,7 @@
         <v>-0.463687422</v>
       </c>
       <c r="B51">
-        <v>-0.4660512339483633</v>
+        <v>-0.4660510089194346</v>
       </c>
       <c r="C51">
         <v>-0.4660512332959343</v>
@@ -8440,7 +8440,7 @@
         <v>-1.238225604</v>
       </c>
       <c r="B52">
-        <v>-1.317234656633111</v>
+        <v>-1.317234034211152</v>
       </c>
       <c r="C52">
         <v>-1.317234654828516</v>
@@ -8595,7 +8595,7 @@
         <v>-0.60508294</v>
       </c>
       <c r="B53">
-        <v>-0.8070679963919317</v>
+        <v>-0.8070676036397127</v>
       </c>
       <c r="C53">
         <v>-0.8070679952532206</v>
@@ -8750,7 +8750,7 @@
         <v>-0.017287212</v>
       </c>
       <c r="B54">
-        <v>0.440640531981399</v>
+        <v>0.4406403128334059</v>
       </c>
       <c r="C54">
         <v>0.4406405313460206</v>
@@ -8905,7 +8905,7 @@
         <v>0.400816827</v>
       </c>
       <c r="B55">
-        <v>0.8697753304884162</v>
+        <v>0.8697748843068146</v>
       </c>
       <c r="C55">
         <v>0.8697753291947964</v>
@@ -9060,7 +9060,7 @@
         <v>1.139826615</v>
       </c>
       <c r="B56">
-        <v>1.436163440499499</v>
+        <v>1.436162743242977</v>
       </c>
       <c r="C56">
         <v>1.436163438477935</v>
@@ -9215,7 +9215,7 @@
         <v>1.216172342</v>
       </c>
       <c r="B57">
-        <v>1.632028847729903</v>
+        <v>1.632028047635989</v>
       </c>
       <c r="C57">
         <v>1.632028845410181</v>
@@ -9370,7 +9370,7 @@
         <v>1.317836986</v>
       </c>
       <c r="B58">
-        <v>1.536485441564348</v>
+        <v>1.536484684924723</v>
       </c>
       <c r="C58">
         <v>1.536485439370614</v>
@@ -9525,7 +9525,7 @@
         <v>1.016928937</v>
       </c>
       <c r="B59">
-        <v>1.243603958861952</v>
+        <v>1.243603343470018</v>
       </c>
       <c r="C59">
         <v>1.243603957077739</v>
@@ -9680,7 +9680,7 @@
         <v>0.845043648</v>
       </c>
       <c r="B60">
-        <v>1.130839747669658</v>
+        <v>1.130839188712603</v>
       </c>
       <c r="C60">
         <v>1.130839746049067</v>
@@ -9835,7 +9835,7 @@
         <v>0.6860601039999999</v>
       </c>
       <c r="B61">
-        <v>0.9205516435419024</v>
+        <v>0.9205511774440643</v>
       </c>
       <c r="C61">
         <v>0.9205516421905393</v>
@@ -9990,7 +9990,7 @@
         <v>-0.019694092</v>
       </c>
       <c r="B62">
-        <v>0.2480431536518127</v>
+        <v>0.248042981182642</v>
       </c>
       <c r="C62">
         <v>0.2480431531517708</v>
@@ -10145,7 +10145,7 @@
         <v>-0.366212842</v>
       </c>
       <c r="B63">
-        <v>-0.001549304523777231</v>
+        <v>-0.001549355644320523</v>
       </c>
       <c r="C63">
         <v>-0.001549304671991596</v>
@@ -10300,7 +10300,7 @@
         <v>1.5856655</v>
       </c>
       <c r="B64">
-        <v>1.676229392714452</v>
+        <v>1.676228563887752</v>
       </c>
       <c r="C64">
         <v>1.676229390311425</v>
@@ -10455,7 +10455,7 @@
         <v>1.886598222</v>
       </c>
       <c r="B65">
-        <v>1.821357164951865</v>
+        <v>1.821356252165523</v>
       </c>
       <c r="C65">
         <v>1.821357162305413</v>
@@ -10610,7 +10610,7 @@
         <v>2.355489398</v>
       </c>
       <c r="B66">
-        <v>2.012945424071409</v>
+        <v>2.012944399192072</v>
       </c>
       <c r="C66">
         <v>2.012945421099964</v>
@@ -10765,7 +10765,7 @@
         <v>2.175336124</v>
       </c>
       <c r="B67">
-        <v>1.804729521796827</v>
+        <v>1.804728605888283</v>
       </c>
       <c r="C67">
         <v>1.804729519141322</v>
@@ -10920,7 +10920,7 @@
         <v>2.193614808</v>
       </c>
       <c r="B68">
-        <v>1.5993223359462</v>
+        <v>1.599321523861855</v>
       </c>
       <c r="C68">
         <v>1.599322333591714</v>
@@ -11075,7 +11075,7 @@
         <v>2.430700245</v>
       </c>
       <c r="B69">
-        <v>1.753850795051118</v>
+        <v>1.753849921882383</v>
       </c>
       <c r="C69">
         <v>1.753850792519529</v>
@@ -11230,7 +11230,7 @@
         <v>0.607910564</v>
       </c>
       <c r="B70">
-        <v>0.3189900550058494</v>
+        <v>0.3189898417895652</v>
       </c>
       <c r="C70">
         <v>0.318990054387669</v>
@@ -11385,7 +11385,7 @@
         <v>1.103132367</v>
       </c>
       <c r="B71">
-        <v>0.7045153257908744</v>
+        <v>0.7045149393686884</v>
       </c>
       <c r="C71">
         <v>0.7045153246705159</v>
@@ -11540,7 +11540,7 @@
         <v>0.726620534</v>
       </c>
       <c r="B72">
-        <v>0.4032219707552984</v>
+        <v>0.4032217597034568</v>
       </c>
       <c r="C72">
         <v>0.4032219701433933</v>
@@ -11695,7 +11695,7 @@
         <v>0.661591042</v>
       </c>
       <c r="B73">
-        <v>0.4447732864311461</v>
+        <v>0.4447730516239919</v>
       </c>
       <c r="C73">
         <v>0.4447732857503668</v>
@@ -11850,7 +11850,7 @@
         <v>0.815347372</v>
       </c>
       <c r="B74">
-        <v>0.6313163251089792</v>
+        <v>0.6313160107695198</v>
       </c>
       <c r="C74">
         <v>0.6313163241976109</v>
@@ -12005,7 +12005,7 @@
         <v>0.370963237</v>
       </c>
       <c r="B75">
-        <v>0.3552539209224038</v>
+        <v>0.3552537327117657</v>
       </c>
       <c r="C75">
         <v>0.3552539203767224</v>
@@ -12160,7 +12160,7 @@
         <v>0.75714769</v>
       </c>
       <c r="B76">
-        <v>0.6113198060957626</v>
+        <v>0.6113195016996028</v>
       </c>
       <c r="C76">
         <v>0.611319805213223</v>
@@ -12315,7 +12315,7 @@
         <v>0.130291626</v>
       </c>
       <c r="B77">
-        <v>-0.1434141790727366</v>
+        <v>-0.1434141266474574</v>
       </c>
       <c r="C77">
         <v>-0.1434141789207394</v>
@@ -12470,7 +12470,7 @@
         <v>-0.109629176</v>
       </c>
       <c r="B78">
-        <v>-0.2462760317489901</v>
+        <v>-0.246275962168208</v>
       </c>
       <c r="C78">
         <v>-0.2462760315472537</v>
@@ -12625,7 +12625,7 @@
         <v>0.913137665</v>
       </c>
       <c r="B79">
-        <v>0.6967718642839512</v>
+        <v>0.6967714820291725</v>
       </c>
       <c r="C79">
         <v>0.6967718631756753</v>
@@ -12780,7 +12780,7 @@
         <v>0.9945061630000001</v>
       </c>
       <c r="B80">
-        <v>0.849327845914986</v>
+        <v>0.8493273829074953</v>
       </c>
       <c r="C80">
         <v>0.8493278445725828</v>
@@ -12935,7 +12935,7 @@
         <v>1.203316887</v>
       </c>
       <c r="B81">
-        <v>0.9375733222798746</v>
+        <v>0.9375728263889104</v>
       </c>
       <c r="C81">
         <v>0.937573320842132</v>
@@ -13090,7 +13090,7 @@
         <v>0.382738146</v>
       </c>
       <c r="B82">
-        <v>0.1684570316125539</v>
+        <v>0.1684568687894436</v>
       </c>
       <c r="C82">
         <v>0.168457031140479</v>
@@ -13245,7 +13245,7 @@
         <v>1.084617502</v>
       </c>
       <c r="B83">
-        <v>0.9266492954717525</v>
+        <v>0.9266487777983442</v>
       </c>
       <c r="C83">
         <v>0.9266492939708558</v>
@@ -13400,7 +13400,7 @@
         <v>0.465588453</v>
       </c>
       <c r="B84">
-        <v>0.3965519604138618</v>
+        <v>0.3965516905287984</v>
       </c>
       <c r="C84">
         <v>0.396551959631381</v>
@@ -13555,7 +13555,7 @@
         <v>-0.594869934</v>
       </c>
       <c r="B85">
-        <v>-0.6160836226118692</v>
+        <v>-0.6160834299543537</v>
       </c>
       <c r="C85">
         <v>-0.6160836220532949</v>
@@ -13710,7 +13710,7 @@
         <v>-0.876294891</v>
       </c>
       <c r="B86">
-        <v>-0.9424916129754991</v>
+        <v>-0.9424912639815979</v>
       </c>
       <c r="C86">
         <v>-0.9424916119636569</v>
@@ -13865,7 +13865,7 @@
         <v>-1.298027516</v>
       </c>
       <c r="B87">
-        <v>-1.348955504913169</v>
+        <v>-1.348954976316979</v>
       </c>
       <c r="C87">
         <v>-1.348955503380603</v>
@@ -14020,7 +14020,7 @@
         <v>-1.033099513</v>
       </c>
       <c r="B88">
-        <v>-0.7390249164701165</v>
+        <v>-0.7390246595302749</v>
       </c>
       <c r="C88">
         <v>-0.7390249157251677</v>
@@ -14175,7 +14175,7 @@
         <v>-1.477734207</v>
       </c>
       <c r="B89">
-        <v>-1.321608877641486</v>
+        <v>-1.32160835949809</v>
       </c>
       <c r="C89">
         <v>-1.321608876139227</v>
@@ -14330,7 +14330,7 @@
         <v>0.138019302</v>
       </c>
       <c r="B90">
-        <v>-0.2135144546767053</v>
+        <v>-0.2135144571162871</v>
       </c>
       <c r="C90">
         <v>-0.2135144546837783</v>
@@ -14485,7 +14485,7 @@
         <v>0.386052651</v>
       </c>
       <c r="B91">
-        <v>0.05305318315557973</v>
+        <v>0.05305305542976733</v>
       </c>
       <c r="C91">
         <v>0.05305318278526282</v>
@@ -14640,7 +14640,7 @@
         <v>0.50370249</v>
       </c>
       <c r="B92">
-        <v>0.1671611081452731</v>
+        <v>0.1671609278888973</v>
       </c>
       <c r="C92">
         <v>0.1671611076226538</v>
@@ -14795,7 +14795,7 @@
         <v>0.997029061</v>
       </c>
       <c r="B93">
-        <v>0.484746595009431</v>
+        <v>0.4847462745546448</v>
       </c>
       <c r="C93">
         <v>0.4847465940803327</v>
@@ -14950,7 +14950,7 @@
         <v>1.133239879</v>
       </c>
       <c r="B94">
-        <v>0.5828371551059488</v>
+        <v>0.5828367891786816</v>
       </c>
       <c r="C94">
         <v>0.5828371540450116</v>
@@ -15105,7 +15105,7 @@
         <v>0.747303563</v>
       </c>
       <c r="B95">
-        <v>0.2793635172749901</v>
+        <v>0.2793632927832075</v>
       </c>
       <c r="C95">
         <v>0.2793635166241186</v>
@@ -15260,7 +15260,7 @@
         <v>-0.324059974</v>
       </c>
       <c r="B96">
-        <v>-0.461794966359322</v>
+        <v>-0.4617948455679635</v>
       </c>
       <c r="C96">
         <v>-0.46179496600911</v>
@@ -15415,7 +15415,7 @@
         <v>-0.318834909</v>
       </c>
       <c r="B97">
-        <v>-0.335102389596093</v>
+        <v>-0.3351023252132754</v>
       </c>
       <c r="C97">
         <v>-0.3351023894094269</v>
@@ -15570,7 +15570,7 @@
         <v>-0.489685706</v>
       </c>
       <c r="B98">
-        <v>-0.4538891923020824</v>
+        <v>-0.4538890666561878</v>
       </c>
       <c r="C98">
         <v>-0.4538891919377957</v>
@@ -15725,7 +15725,7 @@
         <v>-1.24440553</v>
       </c>
       <c r="B99">
-        <v>-0.9526773575810613</v>
+        <v>-0.9526770090963993</v>
       </c>
       <c r="C99">
         <v>-0.9526773565706955</v>
@@ -15880,7 +15880,7 @@
         <v>-1.29987206</v>
       </c>
       <c r="B100">
-        <v>-0.6979735311501803</v>
+        <v>-0.6979732928681023</v>
       </c>
       <c r="C100">
         <v>-0.6979735304593263</v>
@@ -16035,7 +16035,7 @@
         <v>-1.103062627</v>
       </c>
       <c r="B101">
-        <v>-0.5017188068304675</v>
+        <v>-0.5017186615280088</v>
       </c>
       <c r="C101">
         <v>-0.5017188064091902</v>
@@ -16190,7 +16190,7 @@
         <v>-2.173105618</v>
       </c>
       <c r="B102">
-        <v>-1.022160610983276</v>
+        <v>-1.022160239089464</v>
       </c>
       <c r="C102">
         <v>-1.02216060990504</v>
@@ -16345,7 +16345,7 @@
         <v>-2.350437111</v>
       </c>
       <c r="B103">
-        <v>-1.611580318119165</v>
+        <v>-1.611579679723554</v>
       </c>
       <c r="C103">
         <v>-1.611580316268256</v>
@@ -16500,7 +16500,7 @@
         <v>-2.424850206</v>
       </c>
       <c r="B104">
-        <v>-1.875316280077521</v>
+        <v>-1.875315528554775</v>
       </c>
       <c r="C104">
         <v>-1.875316277898622</v>
@@ -16655,7 +16655,7 @@
         <v>-1.306491488</v>
       </c>
       <c r="B105">
-        <v>-1.299522138643528</v>
+        <v>-1.29952164788034</v>
       </c>
       <c r="C105">
         <v>-1.299522137220652</v>
@@ -16810,7 +16810,7 @@
         <v>-1.203195314</v>
       </c>
       <c r="B106">
-        <v>-1.433968776275322</v>
+        <v>-1.433968211319765</v>
       </c>
       <c r="C106">
         <v>-1.43396877463734</v>
@@ -16965,7 +16965,7 @@
         <v>-0.242662172</v>
       </c>
       <c r="B107">
-        <v>-0.6550721544065936</v>
+        <v>-0.6550719492684808</v>
       </c>
       <c r="C107">
         <v>-0.6550721538118341</v>
@@ -17120,7 +17120,7 @@
         <v>0.88970951</v>
       </c>
       <c r="B108">
-        <v>0.6428872090760703</v>
+        <v>0.6428868268321389</v>
       </c>
       <c r="C108">
         <v>0.6428872079678261</v>
@@ -17275,7 +17275,7 @@
         <v>0.928446632</v>
       </c>
       <c r="B109">
-        <v>0.8378848320605817</v>
+        <v>0.8378843589970193</v>
       </c>
       <c r="C109">
         <v>0.837884830689023</v>
@@ -17430,7 +17430,7 @@
         <v>1.465487602</v>
       </c>
       <c r="B110">
-        <v>1.17316879285563</v>
+        <v>1.173168169612721</v>
       </c>
       <c r="C110">
         <v>1.173168791048654</v>
@@ -17585,7 +17585,7 @@
         <v>1.784585844</v>
       </c>
       <c r="B111">
-        <v>1.899905984173154</v>
+        <v>1.899905018950164</v>
       </c>
       <c r="C111">
         <v>1.899905981374672</v>
@@ -17740,7 +17740,7 @@
         <v>1.858495744</v>
       </c>
       <c r="B112">
-        <v>2.130234345676898</v>
+        <v>2.130233281229695</v>
       </c>
       <c r="C112">
         <v>2.130234342590733</v>
@@ -17895,7 +17895,7 @@
         <v>1.493374882</v>
       </c>
       <c r="B113">
-        <v>1.774685488466371</v>
+        <v>1.774684578341471</v>
       </c>
       <c r="C113">
         <v>1.774685485827635</v>
@@ -18050,7 +18050,7 @@
         <v>1.412473281</v>
       </c>
       <c r="B114">
-        <v>1.497876701817767</v>
+        <v>1.497875898369786</v>
       </c>
       <c r="C114">
         <v>1.49787669948832</v>
@@ -18205,7 +18205,7 @@
         <v>1.659878719</v>
       </c>
       <c r="B115">
-        <v>1.721659417467008</v>
+        <v>1.721658512980883</v>
       </c>
       <c r="C115">
         <v>1.721659414844621</v>
@@ -18360,7 +18360,7 @@
         <v>1.179616332</v>
       </c>
       <c r="B116">
-        <v>1.979524199737977</v>
+        <v>1.97952318327513</v>
       </c>
       <c r="C116">
         <v>1.979524196790934</v>
@@ -18515,7 +18515,7 @@
         <v>1.233273608</v>
       </c>
       <c r="B117">
-        <v>1.57202519323245</v>
+        <v>1.572024375246207</v>
       </c>
       <c r="C117">
         <v>1.572025190860853</v>
@@ -18670,7 +18670,7 @@
         <v>0.743599215</v>
       </c>
       <c r="B118">
-        <v>1.151267009902298</v>
+        <v>1.151266380012246</v>
       </c>
       <c r="C118">
         <v>1.151267008076051</v>
@@ -18825,7 +18825,7 @@
         <v>1.229907731</v>
       </c>
       <c r="B119">
-        <v>1.214585468880687</v>
+        <v>1.214584812928605</v>
       </c>
       <c r="C119">
         <v>1.214585466978877</v>
@@ -18980,7 +18980,7 @@
         <v>2.403226273</v>
       </c>
       <c r="B120">
-        <v>2.127897496275208</v>
+        <v>2.127896434975991</v>
       </c>
       <c r="C120">
         <v>2.127897493198171</v>
@@ -19135,7 +19135,7 @@
         <v>2.059121985</v>
       </c>
       <c r="B121">
-        <v>1.968939057445747</v>
+        <v>1.968938063934306</v>
       </c>
       <c r="C121">
         <v>1.968939054565247</v>
@@ -19290,7 +19290,7 @@
         <v>1.874258274</v>
       </c>
       <c r="B122">
-        <v>1.734423603045582</v>
+        <v>1.734422720196076</v>
       </c>
       <c r="C122">
         <v>1.734423600485926</v>
@@ -19445,7 +19445,7 @@
         <v>1.208393848</v>
       </c>
       <c r="B123">
-        <v>1.344520503004918</v>
+        <v>1.344519795152324</v>
       </c>
       <c r="C123">
         <v>1.344520500952633</v>
@@ -19600,7 +19600,7 @@
         <v>1.542184756</v>
       </c>
       <c r="B124">
-        <v>1.498318798942152</v>
+        <v>1.498318027585418</v>
       </c>
       <c r="C124">
         <v>1.498318796705749</v>
@@ -19755,7 +19755,7 @@
         <v>1.314560082</v>
       </c>
       <c r="B125">
-        <v>1.457553056594165</v>
+        <v>1.457552294565825</v>
       </c>
       <c r="C125">
         <v>1.457553054384807</v>
@@ -19910,7 +19910,7 @@
         <v>-1.001923586</v>
       </c>
       <c r="B126">
-        <v>-0.5898202171119353</v>
+        <v>-0.5898200449116637</v>
       </c>
       <c r="C126">
         <v>-0.5898202166126729</v>
@@ -20065,7 +20065,7 @@
         <v>0.304133877</v>
       </c>
       <c r="B127">
-        <v>0.6905904197166496</v>
+        <v>0.6905899959556553</v>
       </c>
       <c r="C127">
         <v>0.6905904184880344</v>
@@ -20220,7 +20220,7 @@
         <v>0.17850123</v>
       </c>
       <c r="B128">
-        <v>0.3900839178643223</v>
+        <v>0.3900836351001037</v>
       </c>
       <c r="C128">
         <v>0.3900839170445008</v>
@@ -20375,7 +20375,7 @@
         <v>1.063120745</v>
       </c>
       <c r="B129">
-        <v>0.9814731408085314</v>
+        <v>0.9814725932819522</v>
       </c>
       <c r="C129">
         <v>0.9814731392210813</v>
@@ -20530,7 +20530,7 @@
         <v>0.464528379</v>
       </c>
       <c r="B130">
-        <v>0.5970080224884073</v>
+        <v>0.5970076499871155</v>
       </c>
       <c r="C130">
         <v>0.59700802140841</v>
@@ -20685,7 +20685,7 @@
         <v>0.740267424</v>
       </c>
       <c r="B131">
-        <v>1.166056077230379</v>
+        <v>1.166055443696655</v>
       </c>
       <c r="C131">
         <v>1.166056075393568</v>
@@ -20840,7 +20840,7 @@
         <v>0.991836694</v>
       </c>
       <c r="B132">
-        <v>1.512766836840771</v>
+        <v>1.512766057139487</v>
       </c>
       <c r="C132">
         <v>1.512766834580174</v>
@@ -20995,7 +20995,7 @@
         <v>-0.037111578</v>
       </c>
       <c r="B133">
-        <v>0.6352400441940462</v>
+        <v>0.6352396641725404</v>
       </c>
       <c r="C133">
         <v>0.6352400430922455</v>
@@ -21150,7 +21150,7 @@
         <v>0.623458544</v>
       </c>
       <c r="B134">
-        <v>0.9221167268137797</v>
+        <v>0.9221162195196503</v>
       </c>
       <c r="C134">
         <v>0.9221167253429757</v>
@@ -21305,7 +21305,7 @@
         <v>0.08882322099999999</v>
       </c>
       <c r="B135">
-        <v>0.6894528423953894</v>
+        <v>0.6894524373357439</v>
       </c>
       <c r="C135">
         <v>0.6894528412209953</v>
@@ -21460,7 +21460,7 @@
         <v>0.116119944</v>
       </c>
       <c r="B136">
-        <v>0.4087505503890251</v>
+        <v>0.4087502821846484</v>
       </c>
       <c r="C136">
         <v>0.408750549611417</v>
@@ -21615,7 +21615,7 @@
         <v>0.037484165</v>
       </c>
       <c r="B137">
-        <v>-0.02894204232502252</v>
+        <v>-0.02894211434280013</v>
       </c>
       <c r="C137">
         <v>-0.02894204253382447</v>
@@ -21770,7 +21770,7 @@
         <v>0.468701595</v>
       </c>
       <c r="B138">
-        <v>0.2969188814388199</v>
+        <v>0.2969186411059707</v>
       </c>
       <c r="C138">
         <v>0.2969188807420202</v>
